--- a/malfiler/Studiebarometeret_2024_alle_vars.xlsx
+++ b/malfiler/Studiebarometeret_2024_alle_vars.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C752D255-AD5D-4DCD-A122-4C542747B945}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52581E59-F2C7-4B93-8E7F-BE1B6527F478}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="203">
   <si>
     <t>Variabel</t>
   </si>
@@ -507,271 +507,142 @@
     <t xml:space="preserve">KUNSTIG INTELLIGENS (KI) </t>
   </si>
   <si>
+    <t>bruker_ki_23</t>
+  </si>
+  <si>
+    <t>Hva bruker du KI til? Flere svar mulig. (Andel avkrysset per bruksområde)</t>
+  </si>
+  <si>
+    <t>Generere/skrive tekst</t>
+  </si>
+  <si>
+    <t>Kvalitetssikre/redigere egen tekst (stavekontroll, omformulering, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oversette tekst</t>
+  </si>
+  <si>
+    <t>Oppsummere eksisterende tekst (artikler, pensum, egne oppgaver, etc.)</t>
+  </si>
+  <si>
+    <t>Forklare tema, pensum, konsepter, terminologi, etc.</t>
+  </si>
+  <si>
+    <t>Som "diskusjonspartner", inspirasjon for oppgaver, idémyldring, etc.</t>
+  </si>
+  <si>
+    <t>Generere/skrive kode (f.eks. til programmeringsverktøy)</t>
+  </si>
+  <si>
+    <t>Generere lyd, bilde, eller video</t>
+  </si>
+  <si>
+    <t>ki_gentekst_23</t>
+  </si>
+  <si>
+    <t>ki_redtekst_23</t>
+  </si>
+  <si>
+    <t>ki_oversette_23</t>
+  </si>
+  <si>
+    <t>ki_oppsum_23</t>
+  </si>
+  <si>
+    <t>ki_forklare_23</t>
+  </si>
+  <si>
+    <t>ki_partner_23</t>
+  </si>
+  <si>
+    <t>ki_kode_23</t>
+  </si>
+  <si>
+    <t>ki_multimed_23</t>
+  </si>
+  <si>
+    <t>VALG AV STUDIEPROGRAM</t>
+  </si>
+  <si>
+    <t>vurd_pensum_13</t>
+  </si>
+  <si>
+    <t>vurd_forstaelse_13</t>
+  </si>
+  <si>
+    <t>vurd_kriterier_17</t>
+  </si>
+  <si>
+    <t>vurd_fagutv_17</t>
+  </si>
+  <si>
+    <t>indx_vurd4</t>
+  </si>
+  <si>
+    <t>I hvilken grad mener du at eksamener, innleveringer og andre vurderingsformer hittil i studieprogrammet ditt:</t>
+  </si>
+  <si>
+    <t>Har handlet om sentrale deler av lærestoffet (pensum)</t>
+  </si>
+  <si>
+    <t>Har krevd forståelse og resonnement</t>
+  </si>
+  <si>
+    <t>Har hatt tydelige kriterier for vurdering</t>
+  </si>
+  <si>
+    <t>Har bidratt til din faglige utvikling</t>
+  </si>
+  <si>
+    <t>INDEKS EKSAMEN</t>
+  </si>
+  <si>
+    <t>VURDERINGSFORMER</t>
+  </si>
+  <si>
+    <t>Informasjonen du fikk i forkant av praksisperioden</t>
+  </si>
+  <si>
+    <t>praksis_inf_19</t>
+  </si>
+  <si>
+    <t>TILKNYTNING TIL ARBEIDSLIVET</t>
+  </si>
+  <si>
+    <t>I hvilken grad opplever du følgende:</t>
+  </si>
+  <si>
+    <t>yrkrel_bruk_18</t>
+  </si>
+  <si>
+    <t>yrkrel_bransje_18</t>
+  </si>
+  <si>
+    <t>yrkrel_formidle_19</t>
+  </si>
+  <si>
+    <t>yrkrel_bidrar_19</t>
+  </si>
+  <si>
+    <t>yrkrel_prosjekt_19</t>
+  </si>
+  <si>
+    <t>Jeg får god informasjon om hvordan kompetansen min kan brukes i arbeidslivet</t>
+  </si>
+  <si>
+    <t>Jeg får god informasjon om hvilke yrker/bransjer som er relevante for meg</t>
+  </si>
+  <si>
+    <t>Jeg får innføring i hvordan jeg kan formidle min egen kompetanse til potensielle arbeidsgivere</t>
+  </si>
+  <si>
+    <t>Representanter fra arbeidslivet bidrar i undervisningen (f.eks. som gjesteforelesere/kursholdere)</t>
+  </si>
+  <si>
+    <t>Det er muligheter for å jobbe med prosjekter/oppgaver i samarbeid med arbeidslivet</t>
+  </si>
+  <si>
     <t>I hvilken grad har du benyttet deg av kunstig intelligens (KI) i studiearbeidet ditt? [1 (Bruker ikke) - 2 (Bruker sjelden) - 3 (Bruker av og til) - 4 (Bruker ofte)]</t>
-  </si>
-  <si>
-    <t>bruker_ki_23</t>
-  </si>
-  <si>
-    <t>Hva bruker du KI til? Flere svar mulig. (Andel avkrysset per bruksområde)</t>
-  </si>
-  <si>
-    <t>Generere/skrive tekst</t>
-  </si>
-  <si>
-    <t>Kvalitetssikre/redigere egen tekst (stavekontroll, omformulering, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oversette tekst</t>
-  </si>
-  <si>
-    <t>Oppsummere eksisterende tekst (artikler, pensum, egne oppgaver, etc.)</t>
-  </si>
-  <si>
-    <t>Forklare tema, pensum, konsepter, terminologi, etc.</t>
-  </si>
-  <si>
-    <t>Som "diskusjonspartner", inspirasjon for oppgaver, idémyldring, etc.</t>
-  </si>
-  <si>
-    <t>Generere/skrive kode (f.eks. til programmeringsverktøy)</t>
-  </si>
-  <si>
-    <t>Generere lyd, bilde, eller video</t>
-  </si>
-  <si>
-    <t>ki_gentekst_23</t>
-  </si>
-  <si>
-    <t>ki_redtekst_23</t>
-  </si>
-  <si>
-    <t>ki_oversette_23</t>
-  </si>
-  <si>
-    <t>ki_oppsum_23</t>
-  </si>
-  <si>
-    <t>ki_forklare_23</t>
-  </si>
-  <si>
-    <t>ki_partner_23</t>
-  </si>
-  <si>
-    <t>ki_kode_23</t>
-  </si>
-  <si>
-    <t>ki_multimed_23</t>
-  </si>
-  <si>
-    <t>STUDIEPROGRAM – FØRSTEVALG</t>
-  </si>
-  <si>
-    <t>Studieprogrammet jeg går på var mitt førstevalg</t>
-  </si>
-  <si>
-    <t>forstevalg_studprog_23</t>
-  </si>
-  <si>
-    <t>VALG AV STUDIEPROGRAM</t>
-  </si>
-  <si>
-    <t>vurd_pensum_13</t>
-  </si>
-  <si>
-    <t>vurd_forstaelse_13</t>
-  </si>
-  <si>
-    <t>vurd_kriterier_17</t>
-  </si>
-  <si>
-    <t>vurd_fagutv_17</t>
-  </si>
-  <si>
-    <t>indx_vurd4</t>
-  </si>
-  <si>
-    <t>I hvilken grad mener du at eksamener, innleveringer og andre vurderingsformer hittil i studieprogrammet ditt:</t>
-  </si>
-  <si>
-    <t>Har handlet om sentrale deler av lærestoffet (pensum)</t>
-  </si>
-  <si>
-    <t>Har krevd forståelse og resonnement</t>
-  </si>
-  <si>
-    <t>Har hatt tydelige kriterier for vurdering</t>
-  </si>
-  <si>
-    <t>Har bidratt til din faglige utvikling</t>
-  </si>
-  <si>
-    <t>INDEKS EKSAMEN</t>
-  </si>
-  <si>
-    <t>VURDERINGSFORMER</t>
-  </si>
-  <si>
-    <t>Informasjonen du fikk i forkant av praksisperioden</t>
-  </si>
-  <si>
-    <t>praksis_inf_19</t>
-  </si>
-  <si>
-    <t>TILKNYTNING TIL ARBEIDSLIVET</t>
-  </si>
-  <si>
-    <t>I hvilken grad opplever du følgende:</t>
-  </si>
-  <si>
-    <t>yrkrel_bruk_18</t>
-  </si>
-  <si>
-    <t>yrkrel_bransje_18</t>
-  </si>
-  <si>
-    <t>yrkrel_formidle_19</t>
-  </si>
-  <si>
-    <t>yrkrel_bidrar_19</t>
-  </si>
-  <si>
-    <t>yrkrel_prosjekt_19</t>
-  </si>
-  <si>
-    <t>Jeg får god informasjon om hvordan kompetansen min kan brukes i arbeidslivet</t>
-  </si>
-  <si>
-    <t>Jeg får god informasjon om hvilke yrker/bransjer som er relevante for meg</t>
-  </si>
-  <si>
-    <t>Jeg får innføring i hvordan jeg kan formidle min egen kompetanse til potensielle arbeidsgivere</t>
-  </si>
-  <si>
-    <t>Representanter fra arbeidslivet bidrar i undervisningen (f.eks. som gjesteforelesere/kursholdere)</t>
-  </si>
-  <si>
-    <t>Det er muligheter for å jobbe med prosjekter/oppgaver i samarbeid med arbeidslivet</t>
-  </si>
-  <si>
-    <t>I hvilken grad brukes disse undervisnings- og arbeidsformene i studieprogrammet ditt?</t>
-  </si>
-  <si>
-    <t>Forelesning</t>
-  </si>
-  <si>
-    <t>Seminar</t>
-  </si>
-  <si>
-    <t>Gruppe uten lærer</t>
-  </si>
-  <si>
-    <t>Skriftlig arbeid til innlevering</t>
-  </si>
-  <si>
-    <t>Prosjektarbeid</t>
-  </si>
-  <si>
-    <t>Feltarbeid / ekskursjon / egen datainnhenting</t>
-  </si>
-  <si>
-    <t>Laboratorieøving</t>
-  </si>
-  <si>
-    <t>Annen praktisk øving</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>Simulering/rollespill</t>
-  </si>
-  <si>
-    <t>Praksisperioder</t>
-  </si>
-  <si>
-    <t>Digitale arbeidsformer</t>
-  </si>
-  <si>
-    <t>UNDERVISNINGS- OG ARBEIDSFORMER – BRUK</t>
-  </si>
-  <si>
-    <t>UNDERVISNINGS- OG ARBEIDSFORMER – BIDRAG</t>
-  </si>
-  <si>
-    <t>undbidr_forelesn_14</t>
-  </si>
-  <si>
-    <t>undbidr_seminar_14</t>
-  </si>
-  <si>
-    <t>undbidr_gruppe_14</t>
-  </si>
-  <si>
-    <t>undbidr_innlev_14</t>
-  </si>
-  <si>
-    <t>undbidr_prosjekt_14</t>
-  </si>
-  <si>
-    <t>undbidr_feltarb_17</t>
-  </si>
-  <si>
-    <t>undbidr_lab_14</t>
-  </si>
-  <si>
-    <t>undbidr_praktov_14</t>
-  </si>
-  <si>
-    <t>undbidr_case_14</t>
-  </si>
-  <si>
-    <t>undbidr_simul_14</t>
-  </si>
-  <si>
-    <t>undbidr_praksis_14</t>
-  </si>
-  <si>
-    <t>undbidr_digital_14</t>
-  </si>
-  <si>
-    <t>undbruk_forelesn_14</t>
-  </si>
-  <si>
-    <t>undbruk_seminar_14</t>
-  </si>
-  <si>
-    <t>undbruk_gruppe_14</t>
-  </si>
-  <si>
-    <t>undbruk_innlev_14</t>
-  </si>
-  <si>
-    <t>undbruk_prosjekt_14</t>
-  </si>
-  <si>
-    <t>undbruk_feltarb_17</t>
-  </si>
-  <si>
-    <t>undbruk_lab_14</t>
-  </si>
-  <si>
-    <t>undbruk_praktov_14</t>
-  </si>
-  <si>
-    <t>undbruk_case_14</t>
-  </si>
-  <si>
-    <t>undbruk_simul_14</t>
-  </si>
-  <si>
-    <t>undbruk_praksis_14</t>
-  </si>
-  <si>
-    <t>undbruk_digital_14</t>
-  </si>
-  <si>
-    <t>I hvilken grad bidrar disse undervisnings- og arbeidsformene til din læring?</t>
   </si>
 </sst>
 </file>
@@ -1140,11 +1011,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,10 +1564,10 @@
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
@@ -1994,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>124</v>
       </c>
@@ -2005,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66" t="s">
@@ -2018,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67" t="s">
@@ -2031,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68" t="s">
@@ -2044,9 +1915,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B69" t="s">
         <v>146</v>
@@ -2057,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70" t="s">
@@ -2070,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71" t="s">
@@ -2083,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72" t="s">
@@ -2096,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73" t="s">
@@ -2109,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74" t="s">
@@ -2122,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75" t="s">
@@ -2135,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76" t="s">
@@ -2148,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77" t="s">
@@ -2161,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78" t="s">
@@ -2174,190 +2045,192 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="B79" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" t="s">
         <v>177</v>
       </c>
-      <c r="D80" t="s">
-        <v>178</v>
-      </c>
-      <c r="E80" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>191</v>
-      </c>
-      <c r="B81" t="s">
-        <v>185</v>
-      </c>
-      <c r="C81"/>
-      <c r="D81"/>
       <c r="E81" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E82" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D83" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E83" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E84" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85" t="s">
-        <v>189</v>
-      </c>
-      <c r="D85" t="s">
-        <v>183</v>
-      </c>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
       <c r="E85" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D86" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E86" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>194</v>
-      </c>
-      <c r="B87" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87"/>
-      <c r="D87"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87" t="s">
+        <v>198</v>
+      </c>
+      <c r="D87" t="s">
+        <v>193</v>
+      </c>
       <c r="E87" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D88" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E88" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D89" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E89" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D90" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E90" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91"/>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>156</v>
+      </c>
       <c r="B91"/>
-      <c r="C91" t="s">
-        <v>204</v>
-      </c>
-      <c r="D91" t="s">
-        <v>199</v>
-      </c>
+      <c r="C91"/>
+      <c r="D91"/>
       <c r="E91" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D92" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="E92" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="B93" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
@@ -2365,513 +2238,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="D94" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="E94" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="D95" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="E95" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="D96" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="E96" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="D97" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="E97" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="D98" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="E98" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="D99" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="E99" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="D100" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="E100" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="D101" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="E101" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
-      <c r="C102" t="s">
-        <v>215</v>
-      </c>
-      <c r="D102" t="s">
-        <v>241</v>
-      </c>
-      <c r="E102" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C102"/>
+      <c r="D102"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
-      <c r="C103" t="s">
-        <v>216</v>
-      </c>
-      <c r="D103" t="s">
-        <v>242</v>
-      </c>
-      <c r="E103" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C103"/>
+      <c r="D103"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
-      <c r="C104" t="s">
-        <v>217</v>
-      </c>
-      <c r="D104" t="s">
-        <v>243</v>
-      </c>
-      <c r="E104" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105" t="s">
-        <v>218</v>
-      </c>
-      <c r="D105" t="s">
-        <v>244</v>
-      </c>
-      <c r="E105" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>220</v>
-      </c>
-      <c r="B106" t="s">
-        <v>245</v>
-      </c>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107" t="s">
-        <v>207</v>
-      </c>
-      <c r="D107" t="s">
-        <v>221</v>
-      </c>
-      <c r="E107" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108" t="s">
-        <v>208</v>
-      </c>
-      <c r="D108" t="s">
-        <v>222</v>
-      </c>
-      <c r="E108" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109" t="s">
-        <v>209</v>
-      </c>
-      <c r="D109" t="s">
-        <v>223</v>
-      </c>
-      <c r="E109" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110" t="s">
-        <v>210</v>
-      </c>
-      <c r="D110" t="s">
-        <v>224</v>
-      </c>
-      <c r="E110" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111" t="s">
-        <v>211</v>
-      </c>
-      <c r="D111" t="s">
-        <v>225</v>
-      </c>
-      <c r="E111" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112" t="s">
-        <v>212</v>
-      </c>
-      <c r="D112" t="s">
-        <v>226</v>
-      </c>
-      <c r="E112" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113" t="s">
-        <v>213</v>
-      </c>
-      <c r="D113" t="s">
-        <v>227</v>
-      </c>
-      <c r="E113" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114" t="s">
-        <v>214</v>
-      </c>
-      <c r="D114" t="s">
-        <v>228</v>
-      </c>
-      <c r="E114" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115" t="s">
-        <v>215</v>
-      </c>
-      <c r="D115" t="s">
-        <v>229</v>
-      </c>
-      <c r="E115" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116" t="s">
-        <v>216</v>
-      </c>
-      <c r="D116" t="s">
-        <v>230</v>
-      </c>
-      <c r="E116" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117" t="s">
-        <v>217</v>
-      </c>
-      <c r="D117" t="s">
-        <v>231</v>
-      </c>
-      <c r="E117" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118"/>
-      <c r="B118"/>
-      <c r="C118" t="s">
-        <v>218</v>
-      </c>
-      <c r="D118" t="s">
-        <v>232</v>
-      </c>
-      <c r="E118" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>156</v>
-      </c>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120"/>
-      <c r="B120"/>
-      <c r="C120" t="s">
-        <v>157</v>
-      </c>
-      <c r="D120" t="s">
-        <v>158</v>
-      </c>
-      <c r="E120" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>156</v>
-      </c>
-      <c r="B121" t="s">
-        <v>159</v>
-      </c>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122"/>
-      <c r="B122"/>
-      <c r="C122" t="s">
-        <v>160</v>
-      </c>
-      <c r="D122" t="s">
-        <v>168</v>
-      </c>
-      <c r="E122" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123"/>
-      <c r="B123"/>
-      <c r="C123" t="s">
-        <v>161</v>
-      </c>
-      <c r="D123" t="s">
-        <v>169</v>
-      </c>
-      <c r="E123" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124"/>
-      <c r="B124"/>
-      <c r="C124" t="s">
-        <v>162</v>
-      </c>
-      <c r="D124" t="s">
-        <v>170</v>
-      </c>
-      <c r="E124" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125"/>
-      <c r="B125"/>
-      <c r="C125" t="s">
-        <v>163</v>
-      </c>
-      <c r="D125" t="s">
-        <v>171</v>
-      </c>
-      <c r="E125" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126"/>
-      <c r="B126"/>
-      <c r="C126" t="s">
-        <v>164</v>
-      </c>
-      <c r="D126" t="s">
-        <v>172</v>
-      </c>
-      <c r="E126" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127"/>
-      <c r="B127"/>
-      <c r="C127" t="s">
-        <v>165</v>
-      </c>
-      <c r="D127" t="s">
-        <v>173</v>
-      </c>
-      <c r="E127" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128"/>
-      <c r="B128"/>
-      <c r="C128" t="s">
-        <v>166</v>
-      </c>
-      <c r="D128" t="s">
-        <v>174</v>
-      </c>
-      <c r="E128" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129"/>
-      <c r="B129"/>
-      <c r="C129" t="s">
-        <v>167</v>
-      </c>
-      <c r="D129" t="s">
-        <v>175</v>
-      </c>
-      <c r="E129" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130"/>
-      <c r="B130"/>
-      <c r="C130"/>
-      <c r="D130"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131"/>
-      <c r="B131"/>
-      <c r="C131"/>
-      <c r="D131"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132"/>
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
+      <c r="C104"/>
+      <c r="D104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/malfiler/Studiebarometeret_2024_alle_vars.xlsx
+++ b/malfiler/Studiebarometeret_2024_alle_vars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/malfiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52581E59-F2C7-4B93-8E7F-BE1B6527F478}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="8_{C138724C-99B5-4021-A7A5-493A6B263C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDB875C6-21D5-45EE-AE02-381F95D2D65C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{FA7D840D-9D53-4472-AAA2-57617C6B2F63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="178">
   <si>
     <t>Variabel</t>
   </si>
@@ -390,120 +390,6 @@
     <t>Utheving</t>
   </si>
   <si>
-    <t>Studiebarometeret 2023</t>
-  </si>
-  <si>
-    <t>VALG AV STUDIESTED</t>
-  </si>
-  <si>
-    <t>At institusjonen har et godt faglig omdømme</t>
-  </si>
-  <si>
-    <t>At det sosiale miljøet på studiestedet er godt</t>
-  </si>
-  <si>
-    <t>At byen/stedet er et attraktivt sted å studere</t>
-  </si>
-  <si>
-    <t>At venner/familie/kjæreste bor eller studerer der</t>
-  </si>
-  <si>
-    <t>At det ga meg muligheten til å bytte miljø / bo et nytt sted</t>
-  </si>
-  <si>
-    <t>At det er nært hjemstedet mitt</t>
-  </si>
-  <si>
-    <t>At utdanningen jeg ønsket å ta finnes bare få / ingen andre steder</t>
-  </si>
-  <si>
-    <t>At det er økonomisk gunstig for meg å studere der</t>
-  </si>
-  <si>
-    <t>studsted_omdom_23</t>
-  </si>
-  <si>
-    <t>studsted_sosmiljo_23</t>
-  </si>
-  <si>
-    <t>studsted_by_23</t>
-  </si>
-  <si>
-    <t>studsted_venner_23</t>
-  </si>
-  <si>
-    <t>studsted_nyttsted_23</t>
-  </si>
-  <si>
-    <t>studsted_naert_23</t>
-  </si>
-  <si>
-    <t>studsted_bareher_23</t>
-  </si>
-  <si>
-    <t>studsted_okonomi_23</t>
-  </si>
-  <si>
-    <t>Hvor viktig var følgende punkter for ditt valg av studiested? [1 (Ikke viktig) - 2 (Litt viktig) - 3 (Viktig)]</t>
-  </si>
-  <si>
-    <t>Faglig interesse</t>
-  </si>
-  <si>
-    <t>Studieprogrammets prestisje</t>
-  </si>
-  <si>
-    <t>Det var lettere å komme inn på enn alternativene</t>
-  </si>
-  <si>
-    <t>Forventede karrieremuligheter etter studiet</t>
-  </si>
-  <si>
-    <t>Forventet lønn etter studiet</t>
-  </si>
-  <si>
-    <t>Mulighet for å studere over nett</t>
-  </si>
-  <si>
-    <t>Mulighet for å studere på deltid</t>
-  </si>
-  <si>
-    <t>Mulighet for å videreutdanne meg innenfor yrket mitt</t>
-  </si>
-  <si>
-    <t>Mulighet for å omskolere meg til et annet yrke</t>
-  </si>
-  <si>
-    <t>Hvor viktig var følgende punkter for ditt valg av studieprogram? [1 (Ikke viktig) - 2 (Litt viktig) - 3 (Viktig)]</t>
-  </si>
-  <si>
-    <t>studprog_fagint_23</t>
-  </si>
-  <si>
-    <t>studprog_prestisje_23</t>
-  </si>
-  <si>
-    <t>studprog_lettopptak_23</t>
-  </si>
-  <si>
-    <t>studprog_karriere_23</t>
-  </si>
-  <si>
-    <t>studprog_lonn_23</t>
-  </si>
-  <si>
-    <t>studprog_mulignett_23</t>
-  </si>
-  <si>
-    <t>studprog_muligdelt_23</t>
-  </si>
-  <si>
-    <t>studprog_videreutd_23</t>
-  </si>
-  <si>
-    <t>studprog_omskolere_23</t>
-  </si>
-  <si>
     <t xml:space="preserve">KUNSTIG INTELLIGENS (KI) </t>
   </si>
   <si>
@@ -561,9 +447,6 @@
     <t>ki_multimed_23</t>
   </si>
   <si>
-    <t>VALG AV STUDIEPROGRAM</t>
-  </si>
-  <si>
     <t>vurd_pensum_13</t>
   </si>
   <si>
@@ -643,13 +526,55 @@
   </si>
   <si>
     <t>I hvilken grad har du benyttet deg av kunstig intelligens (KI) i studiearbeidet ditt? [1 (Bruker ikke) - 2 (Bruker sjelden) - 3 (Bruker av og til) - 4 (Bruker ofte)]</t>
+  </si>
+  <si>
+    <t>Studiebarometeret 2024</t>
+  </si>
+  <si>
+    <t>FORVENTNINGER</t>
+  </si>
+  <si>
+    <t>Jeg opplever at de faglig ansatte stiller klare forventninger til meg som student</t>
+  </si>
+  <si>
+    <t>De faglig ansatte forventer at jeg stiller forberedt til organiserte læringsaktiviteter</t>
+  </si>
+  <si>
+    <t>De faglig ansatte forventer at jeg deltar aktivt i organiserte læringsaktiviteter</t>
+  </si>
+  <si>
+    <t>De faglig ansatte har høye faglige ambisjoner på vegne av meg som student</t>
+  </si>
+  <si>
+    <t>forvent_klare_16</t>
+  </si>
+  <si>
+    <t>forvent_forberedt_16</t>
+  </si>
+  <si>
+    <t>forvent_deltar_16</t>
+  </si>
+  <si>
+    <t>forvent_fagamb_16</t>
+  </si>
+  <si>
+    <t>indx_forvent4</t>
+  </si>
+  <si>
+    <t>INDEKS FORVENTNINGER</t>
+  </si>
+  <si>
+    <t>I hvilken grad får du tilstrekkelig opplæring i bruk av KI-verktøy på studieprogrammet/institusjonen?</t>
+  </si>
+  <si>
+    <t>opplaer_ki_24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,16 +590,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -682,24 +626,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Merknad 2" xfId="2" xr:uid="{DEE2367B-C655-428E-A8CD-58A865D6695C}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{01B73B2C-2A34-4692-AAE5-3C1395D26EEC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -715,9 +675,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -755,7 +715,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -861,7 +821,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1003,7 +963,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1011,23 +971,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11175198-0FD8-474C-BC80-0C4ED23782B1}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="73.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="25.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="73.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.1796875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1050,9 +1010,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -1061,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" t="s">
@@ -1083,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1095,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" t="s">
@@ -1108,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" t="s">
@@ -1121,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" t="s">
@@ -1134,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" t="s">
@@ -1147,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" t="s">
@@ -1160,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" t="s">
@@ -1173,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" t="s">
@@ -1186,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" t="s">
@@ -1199,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" t="s">
@@ -1212,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
@@ -1225,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" t="s">
@@ -1241,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1253,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" t="s">
@@ -1266,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" t="s">
@@ -1279,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
@@ -1292,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" t="s">
@@ -1305,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" t="s">
@@ -1321,78 +1281,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23"/>
       <c r="E23" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
@@ -1401,145 +1361,145 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C29"/>
       <c r="E29" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E30" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G33" s="2" t="b">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
         <v>50</v>
       </c>
-      <c r="C34"/>
-      <c r="E34" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="C35"/>
       <c r="E35" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E36" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E37" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
@@ -1548,9 +1508,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
@@ -1560,829 +1520,687 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" t="s">
-        <v>189</v>
+        <v>44</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46"/>
       <c r="E46" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>107</v>
+        <v>149</v>
+      </c>
+      <c r="D47" t="s">
+        <v>150</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E48" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52"/>
+      <c r="B52"/>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="2" t="s">
-        <v>113</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53" t="s">
+        <v>56</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C54"/>
       <c r="E54" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60"/>
+      <c r="E60" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58" t="s">
+      <c r="E63" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59" t="s">
+      <c r="E64" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2" t="b">
+      <c r="E65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" t="s">
-        <v>136</v>
-      </c>
-      <c r="E60" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" t="s">
-        <v>130</v>
-      </c>
-      <c r="E63" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>123</v>
-      </c>
-      <c r="D64" t="s">
-        <v>131</v>
-      </c>
-      <c r="E64" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" t="s">
-        <v>133</v>
-      </c>
-      <c r="E66" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="E67" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D68" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>175</v>
-      </c>
-      <c r="B69" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="E68" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D70" t="s">
-        <v>147</v>
-      </c>
-      <c r="E70" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="E70" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" t="s">
-        <v>149</v>
-      </c>
-      <c r="E72" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="E71" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
-      </c>
-      <c r="E73" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="E73" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
-      </c>
-      <c r="E74" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="E74" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
-      </c>
-      <c r="E75" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="E75" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
-      </c>
-      <c r="E76" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E76" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D77" t="s">
-        <v>154</v>
-      </c>
-      <c r="E77" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78"/>
+        <v>157</v>
+      </c>
+      <c r="E77" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>118</v>
+      </c>
       <c r="B78"/>
-      <c r="C78" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" t="s">
-        <v>155</v>
-      </c>
-      <c r="E78" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>187</v>
-      </c>
-      <c r="B79" t="s">
-        <v>181</v>
-      </c>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" t="s">
+        <v>119</v>
+      </c>
+      <c r="E79" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D80" t="s">
-        <v>176</v>
-      </c>
-      <c r="E80" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81" t="s">
-        <v>183</v>
-      </c>
-      <c r="D81" t="s">
         <v>177</v>
       </c>
-      <c r="E81" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D82" t="s">
-        <v>178</v>
-      </c>
-      <c r="E82" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="E82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="D83" t="s">
-        <v>179</v>
-      </c>
-      <c r="E83" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
-        <v>180</v>
-      </c>
-      <c r="E84" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>190</v>
-      </c>
-      <c r="B85" t="s">
-        <v>191</v>
-      </c>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="E84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="D86" t="s">
-        <v>192</v>
-      </c>
-      <c r="E86" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="E86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="D87" t="s">
-        <v>193</v>
-      </c>
-      <c r="E87" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="E87" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="D88" t="s">
-        <v>194</v>
-      </c>
-      <c r="E88" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="E88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
-      </c>
-      <c r="E89" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="E89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90"/>
       <c r="B90"/>
-      <c r="C90" t="s">
-        <v>201</v>
-      </c>
-      <c r="D90" t="s">
-        <v>196</v>
-      </c>
-      <c r="E90" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>156</v>
-      </c>
+      <c r="C90"/>
+      <c r="D90"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
-      <c r="E91" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92"/>
       <c r="B92"/>
-      <c r="C92" t="s">
-        <v>202</v>
-      </c>
-      <c r="D92" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>156</v>
-      </c>
-      <c r="B93" t="s">
-        <v>158</v>
-      </c>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94" t="s">
-        <v>159</v>
-      </c>
-      <c r="D94" t="s">
-        <v>167</v>
-      </c>
-      <c r="E94" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95" t="s">
-        <v>160</v>
-      </c>
-      <c r="D95" t="s">
-        <v>168</v>
-      </c>
-      <c r="E95" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96" t="s">
-        <v>161</v>
-      </c>
-      <c r="D96" t="s">
-        <v>169</v>
-      </c>
-      <c r="E96" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97" t="s">
-        <v>162</v>
-      </c>
-      <c r="D97" t="s">
-        <v>170</v>
-      </c>
-      <c r="E97" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98" t="s">
-        <v>163</v>
-      </c>
-      <c r="D98" t="s">
-        <v>171</v>
-      </c>
-      <c r="E98" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99" t="s">
-        <v>164</v>
-      </c>
-      <c r="D99" t="s">
-        <v>172</v>
-      </c>
-      <c r="E99" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100" t="s">
-        <v>165</v>
-      </c>
-      <c r="D100" t="s">
-        <v>173</v>
-      </c>
-      <c r="E100" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101" t="s">
-        <v>166</v>
-      </c>
-      <c r="D101" t="s">
-        <v>174</v>
-      </c>
-      <c r="E101" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
+      <c r="C92"/>
+      <c r="D92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
